--- a/covid-tracker.xlsx
+++ b/covid-tracker.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukeh\Documents\Analysis\Covid-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFCA0386-49F9-4599-A5E6-3F7A176318EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7072E002-E04E-46A3-A815-AEB7991DF2AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="2685" windowWidth="21525" windowHeight="11325"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11325" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="covid-tracker" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,22 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Daily-Change'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Daily-Change-Percent'!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="302">
   <si>
     <t>GSS_CD</t>
   </si>
@@ -931,12 +941,15 @@
   </si>
   <si>
     <t>Worcestershire</t>
+  </si>
+  <si>
+    <t>Change</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1777,10 +1790,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -3898,7 +3911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5715,7 +5728,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1">
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D150">
       <sortCondition descending="1" ref="D1"/>
     </sortState>
@@ -5725,7 +5738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7540,7 +7553,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1">
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D150">
       <sortCondition descending="1" ref="D1"/>
     </sortState>
@@ -7550,10 +7563,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E150"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H150"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7561,10 +7576,10 @@
     <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7580,8 +7595,17 @@
       <c r="E1" s="3">
         <v>43914</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="3">
+        <v>43913</v>
+      </c>
+      <c r="G1" s="3">
+        <v>43914</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>221</v>
       </c>
@@ -7599,8 +7623,20 @@
         <f>VLOOKUP($A2,'covid-tracker'!$A$1:$D$150,3,0)/$C2</f>
         <v>5.4418458741205017E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>RANK(D2,D$2:D$150)</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>RANK(E2,E$2:E$150)</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>G2-F2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>247</v>
       </c>
@@ -7618,8 +7654,20 @@
         <f>VLOOKUP($A3,'covid-tracker'!$A$1:$D$150,3,0)/$C3</f>
         <v>5.2482336168946126E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f t="shared" ref="F3:G66" si="0">RANK(D3,D$2:D$150)</f>
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="1">G3-F3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>237</v>
       </c>
@@ -7637,8 +7685,20 @@
         <f>VLOOKUP($A4,'covid-tracker'!$A$1:$D$150,3,0)/$C4</f>
         <v>4.8541241142799503E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>211</v>
       </c>
@@ -7656,8 +7716,20 @@
         <f>VLOOKUP($A5,'covid-tracker'!$A$1:$D$150,3,0)/$C5</f>
         <v>4.5173076846199663E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>191</v>
       </c>
@@ -7675,8 +7747,20 @@
         <f>VLOOKUP($A6,'covid-tracker'!$A$1:$D$150,3,0)/$C6</f>
         <v>4.322919028401276E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>225</v>
       </c>
@@ -7694,8 +7778,20 @@
         <f>VLOOKUP($A7,'covid-tracker'!$A$1:$D$150,3,0)/$C7</f>
         <v>4.1114762347468833E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -7713,8 +7809,20 @@
         <f>VLOOKUP($A8,'covid-tracker'!$A$1:$D$150,3,0)/$C8</f>
         <v>3.4612250898999612E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>207</v>
       </c>
@@ -7732,8 +7840,20 @@
         <f>VLOOKUP($A9,'covid-tracker'!$A$1:$D$150,3,0)/$C9</f>
         <v>3.1279324366593683E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>199</v>
       </c>
@@ -7751,8 +7871,20 @@
         <f>VLOOKUP($A10,'covid-tracker'!$A$1:$D$150,3,0)/$C10</f>
         <v>3.0995783403804878E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>227</v>
       </c>
@@ -7770,8 +7902,20 @@
         <f>VLOOKUP($A11,'covid-tracker'!$A$1:$D$150,3,0)/$C11</f>
         <v>2.8332718359601496E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>229</v>
       </c>
@@ -7789,8 +7933,20 @@
         <f>VLOOKUP($A12,'covid-tracker'!$A$1:$D$150,3,0)/$C12</f>
         <v>2.7644941945621912E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>217</v>
       </c>
@@ -7808,8 +7964,20 @@
         <f>VLOOKUP($A13,'covid-tracker'!$A$1:$D$150,3,0)/$C13</f>
         <v>2.6958955912874562E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>171</v>
       </c>
@@ -7827,8 +7995,20 @@
         <f>VLOOKUP($A14,'covid-tracker'!$A$1:$D$150,3,0)/$C14</f>
         <v>2.6335073738206467E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>205</v>
       </c>
@@ -7846,8 +8026,20 @@
         <f>VLOOKUP($A15,'covid-tracker'!$A$1:$D$150,3,0)/$C15</f>
         <v>2.5745087872990898E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>215</v>
       </c>
@@ -7865,8 +8057,20 @@
         <f>VLOOKUP($A16,'covid-tracker'!$A$1:$D$150,3,0)/$C16</f>
         <v>2.5588536335721597E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>219</v>
       </c>
@@ -7884,8 +8088,20 @@
         <f>VLOOKUP($A17,'covid-tracker'!$A$1:$D$150,3,0)/$C17</f>
         <v>2.4671534067625093E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>187</v>
       </c>
@@ -7903,8 +8119,20 @@
         <f>VLOOKUP($A18,'covid-tracker'!$A$1:$D$150,3,0)/$C18</f>
         <v>2.3971030754322436E-4</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>209</v>
       </c>
@@ -7922,8 +8150,20 @@
         <f>VLOOKUP($A19,'covid-tracker'!$A$1:$D$150,3,0)/$C19</f>
         <v>2.3649048125812936E-4</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>203</v>
       </c>
@@ -7941,8 +8181,20 @@
         <f>VLOOKUP($A20,'covid-tracker'!$A$1:$D$150,3,0)/$C20</f>
         <v>2.3411347864675422E-4</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>193</v>
       </c>
@@ -7960,8 +8212,20 @@
         <f>VLOOKUP($A21,'covid-tracker'!$A$1:$D$150,3,0)/$C21</f>
         <v>2.2954067702418633E-4</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>195</v>
       </c>
@@ -7979,8 +8243,20 @@
         <f>VLOOKUP($A22,'covid-tracker'!$A$1:$D$150,3,0)/$C22</f>
         <v>2.2881026290299207E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>201</v>
       </c>
@@ -7998,8 +8274,20 @@
         <f>VLOOKUP($A23,'covid-tracker'!$A$1:$D$150,3,0)/$C23</f>
         <v>2.2763419185369111E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>197</v>
       </c>
@@ -8017,8 +8305,20 @@
         <f>VLOOKUP($A24,'covid-tracker'!$A$1:$D$150,3,0)/$C24</f>
         <v>2.2058098436210575E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>253</v>
       </c>
@@ -8036,8 +8336,20 @@
         <f>VLOOKUP($A25,'covid-tracker'!$A$1:$D$150,3,0)/$C25</f>
         <v>2.2049037058417923E-4</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>241</v>
       </c>
@@ -8055,8 +8367,20 @@
         <f>VLOOKUP($A26,'covid-tracker'!$A$1:$D$150,3,0)/$C26</f>
         <v>2.1088745849136777E-4</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>243</v>
       </c>
@@ -8074,8 +8398,20 @@
         <f>VLOOKUP($A27,'covid-tracker'!$A$1:$D$150,3,0)/$C27</f>
         <v>2.0238525478857969E-4</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>231</v>
       </c>
@@ -8093,8 +8429,20 @@
         <f>VLOOKUP($A28,'covid-tracker'!$A$1:$D$150,3,0)/$C28</f>
         <v>1.9886081163619836E-4</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>185</v>
       </c>
@@ -8112,8 +8460,20 @@
         <f>VLOOKUP($A29,'covid-tracker'!$A$1:$D$150,3,0)/$C29</f>
         <v>1.98115076557326E-4</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -8131,8 +8491,20 @@
         <f>VLOOKUP($A30,'covid-tracker'!$A$1:$D$150,3,0)/$C30</f>
         <v>1.8197237453348121E-4</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>189</v>
       </c>
@@ -8150,8 +8522,20 @@
         <f>VLOOKUP($A31,'covid-tracker'!$A$1:$D$150,3,0)/$C31</f>
         <v>1.7390741654466185E-4</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>233</v>
       </c>
@@ -8169,8 +8553,20 @@
         <f>VLOOKUP($A32,'covid-tracker'!$A$1:$D$150,3,0)/$C32</f>
         <v>1.6784155756965425E-4</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>235</v>
       </c>
@@ -8188,8 +8584,20 @@
         <f>VLOOKUP($A33,'covid-tracker'!$A$1:$D$150,3,0)/$C33</f>
         <v>1.5743712672165115E-4</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>213</v>
       </c>
@@ -8207,8 +8615,20 @@
         <f>VLOOKUP($A34,'covid-tracker'!$A$1:$D$150,3,0)/$C34</f>
         <v>1.5127419417400412E-4</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -8226,8 +8646,20 @@
         <f>VLOOKUP($A35,'covid-tracker'!$A$1:$D$150,3,0)/$C35</f>
         <v>1.4754010408283706E-4</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>151</v>
       </c>
@@ -8245,8 +8677,20 @@
         <f>VLOOKUP($A36,'covid-tracker'!$A$1:$D$150,3,0)/$C36</f>
         <v>1.3990859305253902E-4</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>223</v>
       </c>
@@ -8264,8 +8708,20 @@
         <f>VLOOKUP($A37,'covid-tracker'!$A$1:$D$150,3,0)/$C37</f>
         <v>1.3107653729982333E-4</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>169</v>
       </c>
@@ -8283,8 +8739,20 @@
         <f>VLOOKUP($A38,'covid-tracker'!$A$1:$D$150,3,0)/$C38</f>
         <v>1.3056765168785155E-4</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -8302,8 +8770,20 @@
         <f>VLOOKUP($A39,'covid-tracker'!$A$1:$D$150,3,0)/$C39</f>
         <v>1.2520253351008985E-4</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>265</v>
       </c>
@@ -8321,8 +8801,20 @@
         <f>VLOOKUP($A40,'covid-tracker'!$A$1:$D$150,3,0)/$C40</f>
         <v>1.2424472286887603E-4</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -8340,8 +8832,20 @@
         <f>VLOOKUP($A41,'covid-tracker'!$A$1:$D$150,3,0)/$C41</f>
         <v>1.2384125363594899E-4</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>125</v>
       </c>
@@ -8359,8 +8863,20 @@
         <f>VLOOKUP($A42,'covid-tracker'!$A$1:$D$150,3,0)/$C42</f>
         <v>1.2338274355239482E-4</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>159</v>
       </c>
@@ -8378,8 +8894,20 @@
         <f>VLOOKUP($A43,'covid-tracker'!$A$1:$D$150,3,0)/$C43</f>
         <v>1.2003076993167884E-4</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>127</v>
       </c>
@@ -8397,8 +8925,20 @@
         <f>VLOOKUP($A44,'covid-tracker'!$A$1:$D$150,3,0)/$C44</f>
         <v>1.1989502524456364E-4</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -8416,8 +8956,20 @@
         <f>VLOOKUP($A45,'covid-tracker'!$A$1:$D$150,3,0)/$C45</f>
         <v>1.1883389991639186E-4</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>129</v>
       </c>
@@ -8435,8 +8987,20 @@
         <f>VLOOKUP($A46,'covid-tracker'!$A$1:$D$150,3,0)/$C46</f>
         <v>1.1845834919829082E-4</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>239</v>
       </c>
@@ -8454,8 +9018,20 @@
         <f>VLOOKUP($A47,'covid-tracker'!$A$1:$D$150,3,0)/$C47</f>
         <v>1.1734506784011735E-4</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>85</v>
       </c>
@@ -8473,8 +9049,20 @@
         <f>VLOOKUP($A48,'covid-tracker'!$A$1:$D$150,3,0)/$C48</f>
         <v>1.1620718346325297E-4</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>255</v>
       </c>
@@ -8492,8 +9080,20 @@
         <f>VLOOKUP($A49,'covid-tracker'!$A$1:$D$150,3,0)/$C49</f>
         <v>1.0299670159343434E-4</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>123</v>
       </c>
@@ -8511,8 +9111,20 @@
         <f>VLOOKUP($A50,'covid-tracker'!$A$1:$D$150,3,0)/$C50</f>
         <v>9.8267350083330719E-5</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>267</v>
       </c>
@@ -8530,8 +9142,20 @@
         <f>VLOOKUP($A51,'covid-tracker'!$A$1:$D$150,3,0)/$C51</f>
         <v>9.7098445158376006E-5</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>165</v>
       </c>
@@ -8549,8 +9173,20 @@
         <f>VLOOKUP($A52,'covid-tracker'!$A$1:$D$150,3,0)/$C52</f>
         <v>9.4691763038444853E-5</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>285</v>
       </c>
@@ -8568,8 +9204,20 @@
         <f>VLOOKUP($A53,'covid-tracker'!$A$1:$D$150,3,0)/$C53</f>
         <v>9.1633164805883142E-5</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -8587,8 +9235,20 @@
         <f>VLOOKUP($A54,'covid-tracker'!$A$1:$D$150,3,0)/$C54</f>
         <v>8.9433613040198462E-5</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -8606,8 +9266,20 @@
         <f>VLOOKUP($A55,'covid-tracker'!$A$1:$D$150,3,0)/$C55</f>
         <v>8.738500376240989E-5</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>121</v>
       </c>
@@ -8625,8 +9297,20 @@
         <f>VLOOKUP($A56,'covid-tracker'!$A$1:$D$150,3,0)/$C56</f>
         <v>8.6363243803437264E-5</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>283</v>
       </c>
@@ -8644,8 +9328,20 @@
         <f>VLOOKUP($A57,'covid-tracker'!$A$1:$D$150,3,0)/$C57</f>
         <v>8.6256539096080069E-5</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -8663,8 +9359,20 @@
         <f>VLOOKUP($A58,'covid-tracker'!$A$1:$D$150,3,0)/$C58</f>
         <v>8.6146342756417905E-5</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>249</v>
       </c>
@@ -8682,8 +9390,20 @@
         <f>VLOOKUP($A59,'covid-tracker'!$A$1:$D$150,3,0)/$C59</f>
         <v>8.3324229389751867E-5</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>45</v>
       </c>
@@ -8701,8 +9421,20 @@
         <f>VLOOKUP($A60,'covid-tracker'!$A$1:$D$150,3,0)/$C60</f>
         <v>8.3287351774541141E-5</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>163</v>
       </c>
@@ -8720,8 +9452,20 @@
         <f>VLOOKUP($A61,'covid-tracker'!$A$1:$D$150,3,0)/$C61</f>
         <v>8.1091365017185138E-5</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>115</v>
       </c>
@@ -8739,8 +9483,20 @@
         <f>VLOOKUP($A62,'covid-tracker'!$A$1:$D$150,3,0)/$C62</f>
         <v>7.8902518568392706E-5</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>79</v>
       </c>
@@ -8758,8 +9514,20 @@
         <f>VLOOKUP($A63,'covid-tracker'!$A$1:$D$150,3,0)/$C63</f>
         <v>7.7390626209228531E-5</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>273</v>
       </c>
@@ -8777,8 +9545,20 @@
         <f>VLOOKUP($A64,'covid-tracker'!$A$1:$D$150,3,0)/$C64</f>
         <v>7.5902089169201515E-5</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -8796,8 +9576,20 @@
         <f>VLOOKUP($A65,'covid-tracker'!$A$1:$D$150,3,0)/$C65</f>
         <v>7.5351398348065502E-5</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>135</v>
       </c>
@@ -8815,8 +9607,20 @@
         <f>VLOOKUP($A66,'covid-tracker'!$A$1:$D$150,3,0)/$C66</f>
         <v>7.0733649411698139E-5</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>61</v>
       </c>
@@ -8834,8 +9638,20 @@
         <f>VLOOKUP($A67,'covid-tracker'!$A$1:$D$150,3,0)/$C67</f>
         <v>7.0057774311215322E-5</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f t="shared" ref="F67:G130" si="2">RANK(D67,D$2:D$150)</f>
+        <v>66</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H130" si="3">G67-F67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>117</v>
       </c>
@@ -8853,8 +9669,20 @@
         <f>VLOOKUP($A68,'covid-tracker'!$A$1:$D$150,3,0)/$C68</f>
         <v>6.7564236241091108E-5</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>51</v>
       </c>
@@ -8872,8 +9700,20 @@
         <f>VLOOKUP($A69,'covid-tracker'!$A$1:$D$150,3,0)/$C69</f>
         <v>6.7222371605270238E-5</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>105</v>
       </c>
@@ -8891,8 +9731,20 @@
         <f>VLOOKUP($A70,'covid-tracker'!$A$1:$D$150,3,0)/$C70</f>
         <v>6.6994351318378309E-5</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>81</v>
       </c>
@@ -8910,8 +9762,20 @@
         <f>VLOOKUP($A71,'covid-tracker'!$A$1:$D$150,3,0)/$C71</f>
         <v>6.3289489849482696E-5</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -8929,8 +9793,20 @@
         <f>VLOOKUP($A72,'covid-tracker'!$A$1:$D$150,3,0)/$C72</f>
         <v>6.3080737035331515E-5</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>113</v>
       </c>
@@ -8948,8 +9824,20 @@
         <f>VLOOKUP($A73,'covid-tracker'!$A$1:$D$150,3,0)/$C73</f>
         <v>6.307556452630251E-5</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>33</v>
       </c>
@@ -8967,8 +9855,20 @@
         <f>VLOOKUP($A74,'covid-tracker'!$A$1:$D$150,3,0)/$C74</f>
         <v>6.1933798399855863E-5</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>289</v>
       </c>
@@ -8986,8 +9886,20 @@
         <f>VLOOKUP($A75,'covid-tracker'!$A$1:$D$150,3,0)/$C75</f>
         <v>6.1698843375200953E-5</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>295</v>
       </c>
@@ -9005,8 +9917,20 @@
         <f>VLOOKUP($A76,'covid-tracker'!$A$1:$D$150,3,0)/$C76</f>
         <v>6.1294898513160887E-5</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -9024,8 +9948,20 @@
         <f>VLOOKUP($A77,'covid-tracker'!$A$1:$D$150,3,0)/$C77</f>
         <v>6.0847915705354108E-5</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -9043,8 +9979,20 @@
         <f>VLOOKUP($A78,'covid-tracker'!$A$1:$D$150,3,0)/$C78</f>
         <v>6.0422308779577257E-5</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -9062,8 +10010,20 @@
         <f>VLOOKUP($A79,'covid-tracker'!$A$1:$D$150,3,0)/$C79</f>
         <v>5.8540952840097112E-5</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>293</v>
       </c>
@@ -9081,8 +10041,20 @@
         <f>VLOOKUP($A80,'covid-tracker'!$A$1:$D$150,3,0)/$C80</f>
         <v>5.7986409330265379E-5</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>257</v>
       </c>
@@ -9100,8 +10072,20 @@
         <f>VLOOKUP($A81,'covid-tracker'!$A$1:$D$150,3,0)/$C81</f>
         <v>5.7840827073530778E-5</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -9119,8 +10103,20 @@
         <f>VLOOKUP($A82,'covid-tracker'!$A$1:$D$150,3,0)/$C82</f>
         <v>5.6217674836968743E-5</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -9138,8 +10134,20 @@
         <f>VLOOKUP($A83,'covid-tracker'!$A$1:$D$150,3,0)/$C83</f>
         <v>5.4503550517005107E-5</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>67</v>
       </c>
@@ -9157,8 +10165,20 @@
         <f>VLOOKUP($A84,'covid-tracker'!$A$1:$D$150,3,0)/$C84</f>
         <v>5.3984992172176134E-5</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>161</v>
       </c>
@@ -9176,8 +10196,20 @@
         <f>VLOOKUP($A85,'covid-tracker'!$A$1:$D$150,3,0)/$C85</f>
         <v>5.1801464072958272E-5</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>263</v>
       </c>
@@ -9195,8 +10227,20 @@
         <f>VLOOKUP($A86,'covid-tracker'!$A$1:$D$150,3,0)/$C86</f>
         <v>5.0508398599654651E-5</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>73</v>
       </c>
@@ -9214,8 +10258,20 @@
         <f>VLOOKUP($A87,'covid-tracker'!$A$1:$D$150,3,0)/$C87</f>
         <v>4.9018706763968799E-5</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>271</v>
       </c>
@@ -9233,8 +10289,20 @@
         <f>VLOOKUP($A88,'covid-tracker'!$A$1:$D$150,3,0)/$C88</f>
         <v>4.8758194888984199E-5</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>29</v>
       </c>
@@ -9252,8 +10320,20 @@
         <f>VLOOKUP($A89,'covid-tracker'!$A$1:$D$150,3,0)/$C89</f>
         <v>4.7643323026494453E-5</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>299</v>
       </c>
@@ -9271,8 +10351,20 @@
         <f>VLOOKUP($A90,'covid-tracker'!$A$1:$D$150,3,0)/$C90</f>
         <v>4.7292743772981315E-5</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -9290,8 +10382,20 @@
         <f>VLOOKUP($A91,'covid-tracker'!$A$1:$D$150,3,0)/$C91</f>
         <v>4.7270148900969035E-5</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>23</v>
       </c>
@@ -9309,8 +10413,20 @@
         <f>VLOOKUP($A92,'covid-tracker'!$A$1:$D$150,3,0)/$C92</f>
         <v>4.7112309857661934E-5</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -9328,8 +10444,20 @@
         <f>VLOOKUP($A93,'covid-tracker'!$A$1:$D$150,3,0)/$C93</f>
         <v>4.6989444995917793E-5</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>157</v>
       </c>
@@ -9347,8 +10475,20 @@
         <f>VLOOKUP($A94,'covid-tracker'!$A$1:$D$150,3,0)/$C94</f>
         <v>4.686086288871987E-5</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>251</v>
       </c>
@@ -9366,8 +10506,20 @@
         <f>VLOOKUP($A95,'covid-tracker'!$A$1:$D$150,3,0)/$C95</f>
         <v>4.6048854764981997E-5</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>147</v>
       </c>
@@ -9385,8 +10537,20 @@
         <f>VLOOKUP($A96,'covid-tracker'!$A$1:$D$150,3,0)/$C96</f>
         <v>4.5339308046593693E-5</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>261</v>
       </c>
@@ -9404,8 +10568,20 @@
         <f>VLOOKUP($A97,'covid-tracker'!$A$1:$D$150,3,0)/$C97</f>
         <v>4.5338768571977666E-5</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>143</v>
       </c>
@@ -9423,8 +10599,20 @@
         <f>VLOOKUP($A98,'covid-tracker'!$A$1:$D$150,3,0)/$C98</f>
         <v>4.4861520642416972E-5</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>179</v>
       </c>
@@ -9442,8 +10630,20 @@
         <f>VLOOKUP($A99,'covid-tracker'!$A$1:$D$150,3,0)/$C99</f>
         <v>4.4349044721576694E-5</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -9461,8 +10661,20 @@
         <f>VLOOKUP($A100,'covid-tracker'!$A$1:$D$150,3,0)/$C100</f>
         <v>4.4172108670454867E-5</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>63</v>
       </c>
@@ -9480,8 +10692,20 @@
         <f>VLOOKUP($A101,'covid-tracker'!$A$1:$D$150,3,0)/$C101</f>
         <v>4.3844505461381208E-5</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>87</v>
       </c>
@@ -9499,8 +10723,20 @@
         <f>VLOOKUP($A102,'covid-tracker'!$A$1:$D$150,3,0)/$C102</f>
         <v>4.3513346730169778E-5</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -9518,8 +10754,20 @@
         <f>VLOOKUP($A103,'covid-tracker'!$A$1:$D$150,3,0)/$C103</f>
         <v>4.3070959405620757E-5</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>53</v>
       </c>
@@ -9537,8 +10785,20 @@
         <f>VLOOKUP($A104,'covid-tracker'!$A$1:$D$150,3,0)/$C104</f>
         <v>4.1809198023565182E-5</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>269</v>
       </c>
@@ -9556,8 +10816,20 @@
         <f>VLOOKUP($A105,'covid-tracker'!$A$1:$D$150,3,0)/$C105</f>
         <v>4.08001157703285E-5</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -9575,8 +10847,20 @@
         <f>VLOOKUP($A106,'covid-tracker'!$A$1:$D$150,3,0)/$C106</f>
         <v>4.0787073993578952E-5</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>155</v>
       </c>
@@ -9594,8 +10878,20 @@
         <f>VLOOKUP($A107,'covid-tracker'!$A$1:$D$150,3,0)/$C107</f>
         <v>3.9929457957608227E-5</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>281</v>
       </c>
@@ -9613,8 +10909,20 @@
         <f>VLOOKUP($A108,'covid-tracker'!$A$1:$D$150,3,0)/$C108</f>
         <v>3.9055825420460373E-5</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>279</v>
       </c>
@@ -9632,8 +10940,20 @@
         <f>VLOOKUP($A109,'covid-tracker'!$A$1:$D$150,3,0)/$C109</f>
         <v>3.8789655735117482E-5</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>277</v>
       </c>
@@ -9651,8 +10971,20 @@
         <f>VLOOKUP($A110,'covid-tracker'!$A$1:$D$150,3,0)/$C110</f>
         <v>3.8730524079320113E-5</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>167</v>
       </c>
@@ -9670,8 +11002,20 @@
         <f>VLOOKUP($A111,'covid-tracker'!$A$1:$D$150,3,0)/$C111</f>
         <v>3.7225058047824892E-5</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -9689,8 +11033,20 @@
         <f>VLOOKUP($A112,'covid-tracker'!$A$1:$D$150,3,0)/$C112</f>
         <v>3.7186175242506988E-5</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>141</v>
       </c>
@@ -9708,8 +11064,20 @@
         <f>VLOOKUP($A113,'covid-tracker'!$A$1:$D$150,3,0)/$C113</f>
         <v>3.7124692561139729E-5</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>177</v>
       </c>
@@ -9727,8 +11095,20 @@
         <f>VLOOKUP($A114,'covid-tracker'!$A$1:$D$150,3,0)/$C114</f>
         <v>3.6469148240249631E-5</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>39</v>
       </c>
@@ -9746,8 +11126,20 @@
         <f>VLOOKUP($A115,'covid-tracker'!$A$1:$D$150,3,0)/$C115</f>
         <v>3.6438026724689884E-5</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>139</v>
       </c>
@@ -9765,8 +11157,20 @@
         <f>VLOOKUP($A116,'covid-tracker'!$A$1:$D$150,3,0)/$C116</f>
         <v>3.6311348022483985E-5</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>181</v>
       </c>
@@ -9784,8 +11188,20 @@
         <f>VLOOKUP($A117,'covid-tracker'!$A$1:$D$150,3,0)/$C117</f>
         <v>3.4778777989670704E-5</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>133</v>
       </c>
@@ -9803,8 +11219,20 @@
         <f>VLOOKUP($A118,'covid-tracker'!$A$1:$D$150,3,0)/$C118</f>
         <v>3.3428940102025122E-5</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>15</v>
       </c>
@@ -9822,8 +11250,20 @@
         <f>VLOOKUP($A119,'covid-tracker'!$A$1:$D$150,3,0)/$C119</f>
         <v>3.3405393539396887E-5</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>137</v>
       </c>
@@ -9841,8 +11281,20 @@
         <f>VLOOKUP($A120,'covid-tracker'!$A$1:$D$150,3,0)/$C120</f>
         <v>3.3324261728751615E-5</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>175</v>
       </c>
@@ -9860,8 +11312,20 @@
         <f>VLOOKUP($A121,'covid-tracker'!$A$1:$D$150,3,0)/$C121</f>
         <v>3.3320322540722191E-5</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>109</v>
       </c>
@@ -9879,8 +11343,20 @@
         <f>VLOOKUP($A122,'covid-tracker'!$A$1:$D$150,3,0)/$C122</f>
         <v>3.2846198936793806E-5</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>49</v>
       </c>
@@ -9898,8 +11374,20 @@
         <f>VLOOKUP($A123,'covid-tracker'!$A$1:$D$150,3,0)/$C123</f>
         <v>3.2722666055843566E-5</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>297</v>
       </c>
@@ -9917,8 +11405,20 @@
         <f>VLOOKUP($A124,'covid-tracker'!$A$1:$D$150,3,0)/$C124</f>
         <v>3.2601658958703015E-5</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <f t="shared" si="2"/>
+        <v>123</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="2"/>
+        <v>123</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -9936,8 +11436,20 @@
         <f>VLOOKUP($A125,'covid-tracker'!$A$1:$D$150,3,0)/$C125</f>
         <v>3.2174342034705389E-5</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <f t="shared" si="2"/>
+        <v>124</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="2"/>
+        <v>124</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>57</v>
       </c>
@@ -9955,8 +11467,20 @@
         <f>VLOOKUP($A126,'covid-tracker'!$A$1:$D$150,3,0)/$C126</f>
         <v>3.1532099677471669E-5</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>97</v>
       </c>
@@ -9974,8 +11498,20 @@
         <f>VLOOKUP($A127,'covid-tracker'!$A$1:$D$150,3,0)/$C127</f>
         <v>3.1223265079275867E-5</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>107</v>
       </c>
@@ -9993,8 +11529,20 @@
         <f>VLOOKUP($A128,'covid-tracker'!$A$1:$D$150,3,0)/$C128</f>
         <v>3.1223265079275867E-5</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>291</v>
       </c>
@@ -10012,8 +11560,20 @@
         <f>VLOOKUP($A129,'covid-tracker'!$A$1:$D$150,3,0)/$C129</f>
         <v>2.9002473119980596E-5</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>145</v>
       </c>
@@ -10031,8 +11591,20 @@
         <f>VLOOKUP($A130,'covid-tracker'!$A$1:$D$150,3,0)/$C130</f>
         <v>2.8981587031705858E-5</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -10050,8 +11622,20 @@
         <f>VLOOKUP($A131,'covid-tracker'!$A$1:$D$150,3,0)/$C131</f>
         <v>2.8151568042339957E-5</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131">
+        <f t="shared" ref="F131:G150" si="4">RANK(D131,D$2:D$150)</f>
+        <v>130</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="H131">
+        <f t="shared" ref="H131:H150" si="5">G131-F131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -10069,8 +11653,20 @@
         <f>VLOOKUP($A132,'covid-tracker'!$A$1:$D$150,3,0)/$C132</f>
         <v>2.7599911680282623E-5</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132">
+        <f t="shared" si="4"/>
+        <v>131</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="4"/>
+        <v>131</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>287</v>
       </c>
@@ -10088,8 +11684,20 @@
         <f>VLOOKUP($A133,'covid-tracker'!$A$1:$D$150,3,0)/$C133</f>
         <v>2.681449198157308E-5</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133">
+        <f t="shared" si="4"/>
+        <v>132</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="4"/>
+        <v>132</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>91</v>
       </c>
@@ -10107,8 +11715,20 @@
         <f>VLOOKUP($A134,'covid-tracker'!$A$1:$D$150,3,0)/$C134</f>
         <v>2.6566473110934001E-5</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134">
+        <f t="shared" si="4"/>
+        <v>133</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="4"/>
+        <v>133</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>275</v>
       </c>
@@ -10126,8 +11746,20 @@
         <f>VLOOKUP($A135,'covid-tracker'!$A$1:$D$150,3,0)/$C135</f>
         <v>2.6460871647572941E-5</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135">
+        <f t="shared" si="4"/>
+        <v>134</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="4"/>
+        <v>134</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>69</v>
       </c>
@@ -10145,8 +11777,20 @@
         <f>VLOOKUP($A136,'covid-tracker'!$A$1:$D$150,3,0)/$C136</f>
         <v>2.46556428547947E-5</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>173</v>
       </c>
@@ -10164,8 +11808,20 @@
         <f>VLOOKUP($A137,'covid-tracker'!$A$1:$D$150,3,0)/$C137</f>
         <v>2.4200769584472787E-5</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137">
+        <f t="shared" si="4"/>
+        <v>136</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="4"/>
+        <v>136</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -10183,8 +11839,20 @@
         <f>VLOOKUP($A138,'covid-tracker'!$A$1:$D$150,3,0)/$C138</f>
         <v>2.1942977515762373E-5</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138">
+        <f t="shared" si="4"/>
+        <v>137</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="4"/>
+        <v>137</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -10202,8 +11870,20 @@
         <f>VLOOKUP($A139,'covid-tracker'!$A$1:$D$150,3,0)/$C139</f>
         <v>2.1345476537763707E-5</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139">
+        <f t="shared" si="4"/>
+        <v>138</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="4"/>
+        <v>138</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>259</v>
       </c>
@@ -10221,8 +11901,20 @@
         <f>VLOOKUP($A140,'covid-tracker'!$A$1:$D$150,3,0)/$C140</f>
         <v>1.9834472312879786E-5</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140">
+        <f t="shared" si="4"/>
+        <v>139</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="4"/>
+        <v>139</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>183</v>
       </c>
@@ -10240,8 +11932,20 @@
         <f>VLOOKUP($A141,'covid-tracker'!$A$1:$D$150,3,0)/$C141</f>
         <v>1.9752306081735041E-5</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>27</v>
       </c>
@@ -10259,8 +11963,20 @@
         <f>VLOOKUP($A142,'covid-tracker'!$A$1:$D$150,3,0)/$C142</f>
         <v>1.7441353449027646E-5</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142">
+        <f t="shared" si="4"/>
+        <v>141</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="4"/>
+        <v>141</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>41</v>
       </c>
@@ -10278,8 +11994,20 @@
         <f>VLOOKUP($A143,'covid-tracker'!$A$1:$D$150,3,0)/$C143</f>
         <v>1.6872985787321639E-5</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143">
+        <f t="shared" si="4"/>
+        <v>142</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="4"/>
+        <v>142</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>43</v>
       </c>
@@ -10297,8 +12025,20 @@
         <f>VLOOKUP($A144,'covid-tracker'!$A$1:$D$150,3,0)/$C144</f>
         <v>1.5635199524689934E-5</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144">
+        <f t="shared" si="4"/>
+        <v>143</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="4"/>
+        <v>143</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>59</v>
       </c>
@@ -10316,8 +12056,20 @@
         <f>VLOOKUP($A145,'covid-tracker'!$A$1:$D$150,3,0)/$C145</f>
         <v>1.4922329276117806E-5</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>89</v>
       </c>
@@ -10335,8 +12087,20 @@
         <f>VLOOKUP($A146,'covid-tracker'!$A$1:$D$150,3,0)/$C146</f>
         <v>1.4130480860263675E-5</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146">
+        <f t="shared" si="4"/>
+        <v>145</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="4"/>
+        <v>145</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>17</v>
       </c>
@@ -10354,8 +12118,20 @@
         <f>VLOOKUP($A147,'covid-tracker'!$A$1:$D$150,3,0)/$C147</f>
         <v>6.7140229082461631E-6</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147">
+        <f t="shared" si="4"/>
+        <v>146</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="4"/>
+        <v>146</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>25</v>
       </c>
@@ -10373,8 +12149,20 @@
         <f>VLOOKUP($A148,'covid-tracker'!$A$1:$D$150,3,0)/$C148</f>
         <v>6.2570000187710001E-6</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148">
+        <f t="shared" si="4"/>
+        <v>147</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="4"/>
+        <v>147</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>21</v>
       </c>
@@ -10392,8 +12180,20 @@
         <f>VLOOKUP($A149,'covid-tracker'!$A$1:$D$150,3,0)/$C149</f>
         <v>3.8366360375223008E-6</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149">
+        <f t="shared" si="4"/>
+        <v>148</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="4"/>
+        <v>148</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>35</v>
       </c>
@@ -10411,13 +12211,20 @@
         <f>VLOOKUP($A150,'covid-tracker'!$A$1:$D$150,3,0)/$C150</f>
         <v>0</v>
       </c>
+      <c r="F150">
+        <f t="shared" si="4"/>
+        <v>149</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="4"/>
+        <v>149</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E150">
-      <sortCondition descending="1" ref="E1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
